--- a/assets/CHECKLIST.xlsx
+++ b/assets/CHECKLIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mconz\OneDrive\Documentos\CODO_a_CODO\GIT\canvama\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89FBB997-9ABC-447B-AD29-FCCC91F150E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E94C07-3ED1-4B6C-ADC5-43C0918FBBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{B630C66C-2871-4C8B-A039-164E9E21149E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>FOOTER</t>
   </si>
@@ -207,13 +197,49 @@
     <t>Req 02 (Clase10)</t>
   </si>
   <si>
-    <t>En funcion de la distribucion elegida utilizar GRID p maquetar el contenido principal MAINde las paginas del sitio</t>
-  </si>
-  <si>
     <t>VALIDAR el codigo HTML</t>
   </si>
   <si>
     <t>Utilizar GRID</t>
+  </si>
+  <si>
+    <t>Crear un formulario</t>
+  </si>
+  <si>
+    <t>Utilizar CSS</t>
+  </si>
+  <si>
+    <t>Aplicar formatos a los párrafos, títulos y demas elementos de las páginas HTML.</t>
+  </si>
+  <si>
+    <t>Deben incluirse algunos de los atributos type de la etiqueta input.</t>
+  </si>
+  <si>
+    <t>En funcion de la distribucion elegida utilizar GRID p maquetar el contenido principal MAIN de las paginas del sitio.</t>
+  </si>
+  <si>
+    <t>Diseñar 2 paginas.</t>
+  </si>
+  <si>
+    <t>Deberá incluir página de inicio y página interna para el sitio web.</t>
+  </si>
+  <si>
+    <t>Seleccionar paleta de colores, estilos y banco de imágenes.</t>
+  </si>
+  <si>
+    <t>Elegimos paleta de colores, usamos 3 referencias de estilos y creamos un banco de imágenes para la página web.</t>
+  </si>
+  <si>
+    <t>Efectos</t>
+  </si>
+  <si>
+    <t>Agregar efectos al menú de navegación.</t>
+  </si>
+  <si>
+    <t>Flexbox</t>
+  </si>
+  <si>
+    <t>En función de la distribución LAYOUT, utilizar Flexbox para maquetear el encabezado.</t>
   </si>
 </sst>
 </file>
@@ -270,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,17 +319,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -317,13 +332,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1287,14 +1300,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -1303,7 +1321,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B98A9FB-8F0D-4136-AB2D-81F2C7DE1890}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,20 +1380,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -1384,7 +1407,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8977FACE-C65C-4857-8B58-39D0EEFD1BCC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1443,20 +1466,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -1465,7 +1493,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20CE9B5-1D0F-4457-9B19-9DC794A4FB41}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1524,20 +1552,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -1546,7 +1579,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA4BB4A-4ED0-4F7A-84D6-3E9109A7FEF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1605,20 +1638,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -1627,7 +1665,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A453B57-258B-4C78-B224-3B3DD6F8C171}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1686,20 +1724,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -1708,7 +1751,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B43BBC-E64A-4F31-AEFF-4525D814E9AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1767,20 +1810,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -1789,7 +1837,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A870B64-83FA-4C9C-B819-890090169FAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1848,20 +1896,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -1870,7 +1923,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{018471F2-64C9-4F35-81D9-6041932F1C0C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1929,20 +1982,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -1951,7 +2009,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFECEF9-42AA-4EF9-A0B1-0B04CDA8F8F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2010,20 +2068,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -2032,7 +2095,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754FD17F-7709-4C52-8F98-CC324DCD59F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2091,7 +2154,7 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2394,19 +2457,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB8E212-240A-45D1-9F14-CBFF70B5FA7B}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="131.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2427,7 +2490,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2442,7 +2505,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2457,7 +2520,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
@@ -2468,7 +2531,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2481,7 +2544,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
@@ -2496,7 +2559,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -2509,7 +2572,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -2521,8 +2584,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -2533,7 +2596,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>19</v>
@@ -2546,7 +2609,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -2561,8 +2624,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2590,7 +2653,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>43</v>
@@ -2599,7 +2662,7 @@
         <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>44</v>
@@ -2614,10 +2677,10 @@
         <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2628,8 +2691,12 @@
       <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -2639,8 +2706,12 @@
       <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -2650,8 +2721,12 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
@@ -2661,8 +2736,12 @@
       <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2672,8 +2751,12 @@
       <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
@@ -2683,11 +2766,57 @@
       <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E11" xr:uid="{6FB8E212-240A-45D1-9F14-CBFF70B5FA7B}"/>
+  <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E11">
     <sortCondition ref="B1:B11"/>
   </sortState>

--- a/assets/CHECKLIST.xlsx
+++ b/assets/CHECKLIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mconz\OneDrive\Documentos\CODO_a_CODO\GIT\canvama\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27E94C07-3ED1-4B6C-ADC5-43C0918FBBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5986E4-4089-408D-BC1A-AFD0F771F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>FOOTER</t>
   </si>
@@ -206,24 +206,9 @@
     <t>Crear un formulario</t>
   </si>
   <si>
-    <t>Utilizar CSS</t>
-  </si>
-  <si>
-    <t>Aplicar formatos a los párrafos, títulos y demas elementos de las páginas HTML.</t>
-  </si>
-  <si>
-    <t>Deben incluirse algunos de los atributos type de la etiqueta input.</t>
-  </si>
-  <si>
     <t>En funcion de la distribucion elegida utilizar GRID p maquetar el contenido principal MAIN de las paginas del sitio.</t>
   </si>
   <si>
-    <t>Diseñar 2 paginas.</t>
-  </si>
-  <si>
-    <t>Deberá incluir página de inicio y página interna para el sitio web.</t>
-  </si>
-  <si>
     <t>Seleccionar paleta de colores, estilos y banco de imágenes.</t>
   </si>
   <si>
@@ -240,6 +225,92 @@
   </si>
   <si>
     <t>En función de la distribución LAYOUT, utilizar Flexbox para maquetear el encabezado.</t>
+  </si>
+  <si>
+    <t>Diseñar al menos 4 páginas.</t>
+  </si>
+  <si>
+    <t>Poseer al menos 4 páginas html, siendo su temática libre. En caso de ser un Sitio
+Web estilo One Page, el mismo deberá tener al menos 5 secciones.</t>
+  </si>
+  <si>
+    <t>Utilizar etiquetas semánticas para estructurar el sitio.</t>
+  </si>
+  <si>
+    <t>Uso etiquetas</t>
+  </si>
+  <si>
+    <t>Req 09</t>
+  </si>
+  <si>
+    <t>Req 10</t>
+  </si>
+  <si>
+    <t>Req 11</t>
+  </si>
+  <si>
+    <t>Req 12</t>
+  </si>
+  <si>
+    <t>Req 13</t>
+  </si>
+  <si>
+    <t>Req 14</t>
+  </si>
+  <si>
+    <t>Contener un formulario de contacto con validación realizada mediante Javascript.
+Opcional: el formulario podrá enviar un email utilizando algún servicio externo
+destinado para ello.</t>
+  </si>
+  <si>
+    <t>Font e Iconos</t>
+  </si>
+  <si>
+    <t>Utilizar al menos un Iframe, íconos de FontAwesome o Flaticon; y fuentes locales o
+bien de Google Fonts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tener al menos una página totalmente responsive con 3 puntos de corte para 3
+tamaños de dispositivos distintos</t>
+  </si>
+  <si>
+    <t>Boostrap</t>
+  </si>
+  <si>
+    <t>En caso de querer utilizar Bootstrap (no es obligatorio), sólo podrá hacerlo en la
+página del formulario del sitio web. No se aceptarán proyectos desarrollados
+íntegramente en algún Framework de CSS (Bootstrap, Materialize, Tailwind o
+similar).</t>
+  </si>
+  <si>
+    <t>Subida a Servidor-on-line</t>
+  </si>
+  <si>
+    <t>El desarrollo web deberá subirse a un servidor on-line para poder ser navegada por
+el Docente. Ejemplo: GitHub Pages, Netlify o similares.</t>
+  </si>
+  <si>
+    <t>Además de los aspectos técnicos mencionados anteriormente, el proyecto deberá
+contemplar aspectos de diseño los cuales también serán evaluados por el Docente.
+Para eso se recomienda que vean el material disponible en el Aula Virtual.
+Seminario de Diseño Web: https://youtu.be/fVkGt2tYIj0. Para más información, ver
+material incluído en el Aula Virtual “Diseño”. En relación al estilo de la web
+(look&amp;feel) se evaluará y considerará: maquetación del sitio web; alineación, orden
+y márgenes entre los elementos; tipografía seleccionada acorde a la temática del
+proyecto; fotografía de calidad y optimizada para web; paleta de colores
+seleccionada acorde a la temática; logo utilizado en el sitio web.</t>
+  </si>
+  <si>
+    <t>Aspectos Diseño Web</t>
+  </si>
+  <si>
+    <t>el TPO es grupal, deberán sincronizar el código del TPO en Github (o similar)
+enviando el link del repositorio al Docente al momento de entregar el proyecto. Este
+requisito es obligatorio. Para más información sobre GIT, ver material incluído en el
+Aula Virtual “GIT”.</t>
+  </si>
+  <si>
+    <t>GitHub para TPO</t>
   </si>
 </sst>
 </file>
@@ -323,21 +394,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,6 +478,30 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -2155,6 +2249,492 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2003F31-8CF7-48A6-AD62-6707BA238BCB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEE9D22-F1FB-4294-BB35-54D0D560E18A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13ABB06-2AAE-4BFC-B209-2C3C82AA1A88}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D549CF4E-1D7F-497C-A710-1710C67CB468}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF60B6F-0D68-4C5D-BA12-CE8CF05CA34C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E9D21B-0518-438B-957C-53884B84B966}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-AR" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>Check Box 1</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2460,360 +3040,416 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E27"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="131.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>53</v>
+      <c r="E15" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>51</v>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>55</v>
+      <c r="D18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>57</v>
+      <c r="D19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>59</v>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+    <row r="26" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3268,6 +3904,138 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId24" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId25" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId26" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId27" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId28" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId29" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/assets/CHECKLIST.xlsx
+++ b/assets/CHECKLIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mconz\OneDrive\Documentos\CODO_a_CODO\GIT\canvama\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5986E4-4089-408D-BC1A-AFD0F771F1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4604F-C328-40BF-90D0-C54196DBE872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,19 +451,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,15 +479,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2254,14 +2254,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -2270,7 +2275,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2003F31-8CF7-48A6-AD62-6707BA238BCB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2329,20 +2334,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -2351,7 +2361,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEE9D22-F1FB-4294-BB35-54D0D560E18A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2410,20 +2420,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -2432,7 +2447,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13ABB06-2AAE-4BFC-B209-2C3C82AA1A88}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2491,20 +2506,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -2513,7 +2533,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D549CF4E-1D7F-497C-A710-1710C67CB468}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2572,20 +2592,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -2594,7 +2619,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF60B6F-0D68-4C5D-BA12-CE8CF05CA34C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2653,20 +2678,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>121920</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="396240" cy="152400"/>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -2675,7 +2705,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71E9D21B-0518-438B-957C-53884B84B966}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2734,7 +2764,7 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -3040,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3316,7 +3346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
@@ -3331,7 +3361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>43</v>
@@ -3346,7 +3376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>43</v>

--- a/assets/CHECKLIST.xlsx
+++ b/assets/CHECKLIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mconz\OneDrive\Documentos\CODO_a_CODO\GIT\canvama\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4604F-C328-40BF-90D0-C54196DBE872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CAF2B-D44C-4076-A6D8-89D875D94645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="0" windowWidth="22500" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,15 +427,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,11 +443,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,15 +467,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,31 +495,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3070,7 +3070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="112" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/assets/CHECKLIST.xlsx
+++ b/assets/CHECKLIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mconz\OneDrive\Documentos\CODO_a_CODO\GIT\canvama\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CAF2B-D44C-4076-A6D8-89D875D94645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4604F-C328-40BF-90D0-C54196DBE872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="0" windowWidth="22500" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,15 +427,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,11 +443,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,15 +467,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,31 +495,31 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3070,7 +3070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="112" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
